--- a/workbooks/matches.xlsx
+++ b/workbooks/matches.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,242 +458,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Liga MX, Apertura</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Monterrey</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Necaxa</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>72</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Superliga</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Aarhus GF</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Randers</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>57</v>
-      </c>
-      <c r="G3" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Premiership</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hibernian FC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ross County</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>67</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Copa de la Superliga</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Club Atletico Barracas Central</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Huracan</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>27</v>
-      </c>
-      <c r="G5" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Copa de la Superliga</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sarmiento</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>San Lorenzo</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>35</v>
-      </c>
-      <c r="G6" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Copa de la Superliga</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Central Cordoba Sde</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Union De Santa Fe</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F7" t="n">
-        <v>44</v>
-      </c>
-      <c r="G7" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Copa de la Superliga</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Belgrano</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Lanus</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Coupe d'Allemagne</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>St. Pauli</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Schalke 04</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>75</v>
-      </c>
-      <c r="G9" t="n">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/workbooks/matches.xlsx
+++ b/workbooks/matches.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,35 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Paradou AC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Belouizdad</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>45</v>
+      </c>
+      <c r="G2" t="n">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
